--- a/data/case1/18/Plm1_14.xlsx
+++ b/data/case1/18/Plm1_14.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.12041887458937595</v>
+        <v>-0.083041962128703517</v>
       </c>
       <c r="B1" s="0">
-        <v>0.11987185561720537</v>
+        <v>0.082651996587586041</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0033283973673512435</v>
+        <v>0.0026297150996832386</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0023411866797680148</v>
+        <v>-0.0036128206759826753</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.10059461009632287</v>
+        <v>0.10654769597175573</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.10120855795276995</v>
+        <v>-0.10718764326211172</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.18278889602889592</v>
+        <v>-0.17680974819446149</v>
       </c>
       <c r="B4" s="0">
-        <v>0.18164231965719324</v>
+        <v>0.17571787601872657</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.17564231979708644</v>
+        <v>-0.16971787613331379</v>
       </c>
       <c r="B5" s="0">
-        <v>0.17332560922895901</v>
+        <v>0.16751478353234361</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.090561680368136166</v>
+        <v>-0.054641627501935019</v>
       </c>
       <c r="B6" s="0">
-        <v>0.090440015631276349</v>
+        <v>0.054603844907236354</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.070440015803015399</v>
+        <v>-0.039209218521671474</v>
       </c>
       <c r="B7" s="0">
-        <v>0.070162427921969694</v>
+        <v>0.039135828441263953</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.050162428095283929</v>
+        <v>-0.019135828585696402</v>
       </c>
       <c r="B8" s="0">
-        <v>0.04996020690020142</v>
+        <v>0.019110400371564751</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.043960207049174471</v>
+        <v>-0.013110400492032603</v>
       </c>
       <c r="B9" s="0">
-        <v>0.043800181497072543</v>
+        <v>0.013096730614172714</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.037800181647654085</v>
+        <v>-0.0070967307350073838</v>
       </c>
       <c r="B10" s="0">
-        <v>0.037778515078798591</v>
+        <v>0.0070967734081364142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.03327851522659131</v>
+        <v>-0.0025967735263918712</v>
       </c>
       <c r="B11" s="0">
-        <v>0.033246416451699901</v>
+        <v>0.0025946082326555597</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045402904104185016</v>
+        <v>0.003405391646460032</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045154888579879149</v>
+        <v>-0.0034249701327571103</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.039154888733214044</v>
+        <v>0.0094249700119828361</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039087180953019107</v>
+        <v>-0.009438730007846452</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027087181118309545</v>
+        <v>0.021438729876695817</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027054195661382785</v>
+        <v>-0.021481261365850379</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021054195816020638</v>
+        <v>0.02748126124556638</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021028206485927292</v>
+        <v>-0.027551903592836879</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015028206641081621</v>
+        <v>-0.015026548363602732</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004775560336192</v>
+        <v>0.015004502885465953</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090047757161864084</v>
+        <v>-0.0090045030057250841</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999998383696322</v>
+        <v>0.0089999998743381937</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.10654345839570212</v>
+        <v>-0.075281711807804186</v>
       </c>
       <c r="B18" s="0">
-        <v>0.10632606354459639</v>
+        <v>0.075183828927375629</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.078612086305053008</v>
+        <v>-0.027097273231270869</v>
       </c>
       <c r="B19" s="0">
-        <v>0.077390882614161161</v>
+        <v>0.027014185748091002</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.068390882762785488</v>
+        <v>-0.018014185868283406</v>
       </c>
       <c r="B20" s="0">
-        <v>0.068110172172473504</v>
+        <v>0.018004334673660694</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090044540009142082</v>
+        <v>-0.0090043347940307328</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999998503533796</v>
+        <v>0.0089999998794896285</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093935796920327164</v>
+        <v>-0.093934875414641184</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093626261638263486</v>
+        <v>0.093625626978404597</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084626261783742329</v>
+        <v>-0.084625627098326994</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084125298044297914</v>
+        <v>0.084125177295685027</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042125298253783861</v>
+        <v>-0.042125177475573317</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999789416265</v>
+        <v>0.041999999819116951</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.076763929005785769</v>
+        <v>-0.094891580872868531</v>
       </c>
       <c r="B25" s="0">
-        <v>0.07661958337492436</v>
+        <v>0.094648160292674532</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.070619583520286966</v>
+        <v>-0.088648160411999299</v>
       </c>
       <c r="B26" s="0">
-        <v>0.070439611086541731</v>
+        <v>0.088335881190676702</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.064439611232622429</v>
+        <v>-0.082335881310648062</v>
       </c>
       <c r="B27" s="0">
-        <v>0.063845567320332641</v>
+        <v>0.081273059129308933</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.057845567468806536</v>
+        <v>-0.07527305925199812</v>
       </c>
       <c r="B28" s="0">
-        <v>0.057447819688690949</v>
+        <v>0.074536479481936091</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.045447819849959714</v>
+        <v>-0.062536479617065766</v>
       </c>
       <c r="B29" s="0">
-        <v>0.045268503324102483</v>
+        <v>0.062170553279639051</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.025268503501033823</v>
+        <v>-0.042170553429759838</v>
       </c>
       <c r="B30" s="0">
-        <v>0.025225074062618091</v>
+        <v>0.042020788387272745</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.010225074231064113</v>
+        <v>-0.027020788529965145</v>
       </c>
       <c r="B31" s="0">
-        <v>0.01022063973351095</v>
+        <v>0.027001088011083141</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.010779360086758061</v>
+        <v>-0.0060010881645444769</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.010792168623632747</v>
+        <v>0.0059999998727615633</v>
       </c>
     </row>
   </sheetData>
